--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value835.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value835.xlsx
@@ -354,7 +354,7 @@
         <v>1.666900640783258</v>
       </c>
       <c r="C1">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D1">
         <v>2.639103421130332</v>

--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value835.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value835.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>0.6199572394332628</v>
+        <v>1.008803129196167</v>
       </c>
       <c r="B1">
-        <v>1.666900640783258</v>
+        <v>1.415010213851929</v>
       </c>
       <c r="C1">
-        <v>15</v>
+        <v>3.750451803207397</v>
       </c>
       <c r="D1">
-        <v>2.639103421130332</v>
+        <v>2.264014720916748</v>
       </c>
       <c r="E1">
-        <v>1.595838155912296</v>
+        <v>0.7641845345497131</v>
       </c>
     </row>
   </sheetData>
